--- a/conf/Objets_Guillaume.xlsx
+++ b/conf/Objets_Guillaume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-10\Documents\my_project\jdr2d\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F38EC-D1A4-4CCA-9458-68B162C03111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8EC18D-2215-40A6-A0B8-108E7F3F9EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,7 +731,7 @@
     <t>Contient beaucoup de pièces d''or !</t>
   </si>
   <si>
-    <t>''</t>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -894,10 +894,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -920,28 +920,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -977,6 +955,28 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -991,17 +991,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A48D8CD-696B-4FFE-8516-876944A4DFD8}" name="Tableau1" displayName="Tableau1" ref="A1:J89" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A48D8CD-696B-4FFE-8516-876944A4DFD8}" name="Tableau1" displayName="Tableau1" ref="A1:J89" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:J89" xr:uid="{3A48D8CD-696B-4FFE-8516-876944A4DFD8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B4413438-940B-4CBB-8E80-0C5451C5DACC}" name="Type_objet" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AAAAFEB2-083E-4580-A13C-E01B10C78F0F}" name="id_objet" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C7745F14-3CC7-4F1B-9C5B-AFC7EAC2EF68}" name="nom_objet" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A752C4FA-1676-46C6-9D49-41784CB26A22}" name="statistiques_objets" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{5AB49770-24B8-43B4-832D-8410602CFFA0}" name="Equipable / false équipable" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{0F393B7D-C1E8-487C-A0A7-304EC9C41F51}" name="description_objets" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{8E78B5F4-A535-487F-95CD-475CBBF702FF}" name="coffre (ouvert/fermé)" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{5620D392-D8FA-411C-844F-C1AADDB248DD}" name="Prix" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B4413438-940B-4CBB-8E80-0C5451C5DACC}" name="Type_objet" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{AAAAFEB2-083E-4580-A13C-E01B10C78F0F}" name="id_objet" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C7745F14-3CC7-4F1B-9C5B-AFC7EAC2EF68}" name="nom_objet" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A752C4FA-1676-46C6-9D49-41784CB26A22}" name="statistiques_objets" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5AB49770-24B8-43B4-832D-8410602CFFA0}" name="Equipable / false équipable" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0F393B7D-C1E8-487C-A0A7-304EC9C41F51}" name="description_objets" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8E78B5F4-A535-487F-95CD-475CBBF702FF}" name="coffre (ouvert/fermé)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{5620D392-D8FA-411C-844F-C1AADDB248DD}" name="Prix" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{EA79DAE7-331B-45B1-8718-4B486AFBFC3E}" name="Poids" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{AA58279E-4273-472A-90A7-030D150C1B86}" name="Concaténation" dataDxfId="0">
       <calculatedColumnFormula>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</calculatedColumnFormula>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J90"/>
+    <sheetView tabSelected="1" topLeftCell="F52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,11 +2859,11 @@
       </c>
       <c r="I45" s="1">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(44,'pinte','+2 esquive',true,true,'Je vous remettrais bien la petite sœur?',5,3),</v>
+        <v>(44,'pinte','+2 esquive',true,true,'Je vous remettrais bien la petite sœur?',5,1),</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2893,11 +2893,11 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ref="I46:I72" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(45,'tord boyaux','+50 mana / -50 pv',true,true,'Très utile pour les nœuds de huit',10,2),</v>
+        <v>(45,'tord boyaux','+50 mana / -50 pv',true,true,'Très utile pour les nœuds de huit',10,1),</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2927,11 +2927,11 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(46,'Sheba','+50 pv / -50 mana',true,true,'Alain sheba, un gros nul',10,2),</v>
+        <v>(46,'Sheba','+50 pv / -50 mana',true,true,'Alain sheba, un gros nul',10,3),</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(48,'grogs','+50 pv',true,true,'Recette mythique des mère grand',7,3),</v>
+        <v>(48,'grogs','+50 pv',true,true,'Recette mythique des mère grand',7,2),</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3063,11 +3063,11 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(50,'muscat death','-50 mana',true,true,'Tu bois tu meurts',8,1),</v>
+        <v>(50,'muscat death','-50 mana',true,true,'Tu bois tu meurts',8,2),</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3131,11 +3131,11 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(52,'tsar tziki','-5 dodge',true,true,'Sauce favorite de Lenine',4,1),</v>
+        <v>(52,'tsar tziki','-5 dodge',true,true,'Sauce favorite de Lenine',4,2),</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(53,'potion magique','/2 magic',true,true,'Remet les idées fixes',15,2),</v>
+        <v>(53,'potion magique','/2 magic',true,true,'Remet les idées fixes',15,1),</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(55,'sauce dallas','*2 magic',true,true,'Sur les boulettes ?',6,1),</v>
+        <v>(55,'sauce dallas','*2 magic',true,true,'Sur les boulettes ?',6,2),</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3267,11 +3267,11 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(56,'sauce biggy','*2 force',true,true,'Avec ou sans frites ?',4,3),</v>
+        <v>(56,'sauce biggy','*2 force',true,true,'Avec ou sans frites ?',4,2),</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3301,11 +3301,11 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(57,'sauce hannibal','*2 pv',true,true,'Pour les Lecter vegan',5,1),</v>
+        <v>(57,'sauce hannibal','*2 pv',true,true,'Pour les Lecter vegan',5,3),</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3369,11 +3369,11 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(59,'barbie turique','poisoned',true,true,'Le Ken lubrique',4,2),</v>
+        <v>(59,'barbie turique','poisoned',true,true,'Le Ken lubrique',4,3),</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3505,11 +3505,11 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(63,'valium','sleep',true,true,'Bienvenue le marchand de sable',6,2),</v>
+        <v>(63,'valium','sleep',true,true,'Bienvenue le marchand de sable',6,1),</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3539,11 +3539,11 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(64,'bezoard','heal poisoned',true,true,'Accumulations très denses de matière partiellement digérée ou false digérée pouvant se coincer dans l''estomac ou les intestins',7,3),</v>
+        <v>(64,'bezoard','heal poisoned',true,true,'Accumulations très denses de matière partiellement digérée ou false digérée pouvant se coincer dans l''estomac ou les intestins',7,1),</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3573,11 +3573,11 @@
       </c>
       <c r="I66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(65,'collyre','heal blind',true,true,'Lorsque vous êtes aveugles, bien viser les yeux',5,2),</v>
+        <v>(65,'collyre','heal blind',true,true,'Lorsque vous êtes aveugles, bien viser les yeux',5,3),</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3641,11 +3641,11 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(67,'epinephrine','heal sleep',true,true,'Impécable pour l''hyper tension',12,1),</v>
+        <v>(67,'epinephrine','heal sleep',true,true,'Impécable pour l''hyper tension',12,2),</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3743,11 +3743,11 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" s="18" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(70,'bipbip','*2 vitesse de déplacement',true,true,'A consommer dans un Saddam Usain bol',15,2),</v>
+        <v>(70,'bipbip','*2 vitesse de déplacement',true,true,'A consommer dans un Saddam Usain bol',15,1),</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3777,11 +3777,11 @@
       </c>
       <c r="I72" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" s="19" t="str">
         <f ca="1">"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(71,'le coyotte','/2 vitesse de déplacement',true,true,'Le seul loup avec un frain à main',9,1),</v>
+        <v>(71,'le coyotte','/2 vitesse de déplacement',true,true,'Le seul loup avec un frain à main',9,2),</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="J77" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(76,'mur','',false,false,'Obstacle infranchissable','',''),</v>
+        <v>(76,'mur','',false,false,'Obstacle infranchissable',null,null),</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J78" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(77,'banc','',false,false,'Objet décoratif','',''),</v>
+        <v>(77,'banc','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="J79" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(78,'table','',false,false,'Objet décoratif','',''),</v>
+        <v>(78,'table','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="J80" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(79,'fleurs','',false,false,'Objet décoratif','',''),</v>
+        <v>(79,'fleurs','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="J81" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(80,'rochers','',false,false,'Objet décoratif','',''),</v>
+        <v>(80,'rochers','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="J82" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(81,'lampadaire','',false,false,'Objet décoratif','',''),</v>
+        <v>(81,'lampadaire','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J83" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(82,'statue','',false,false,'Objet décoratif','',''),</v>
+        <v>(82,'statue','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="J84" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(83,'tente','',false,false,'Objet décoratif','',''),</v>
+        <v>(83,'tente','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="J85" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(84,'fontaine','',false,false,'Objet décoratif','',''),</v>
+        <v>(84,'fontaine','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="J86" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(85,'petite maison','',false,false,'Objet décoratif','',''),</v>
+        <v>(85,'petite maison','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="J87" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(86,'mur de berlin','',false,false,'Obstacle infranchissable avant 1991','',''),</v>
+        <v>(86,'mur de berlin','',false,false,'Obstacle infranchissable avant 1991',null,null),</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="J88" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(87,'seau','',false,false,'Objet décoratif','',''),</v>
+        <v>(87,'seau','',false,false,'Objet décoratif',null,null),</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="J89" s="18" t="str">
         <f>"("&amp;Tableau1[[#This Row],[id_objet]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[nom_objet]]&amp;"'"&amp;","&amp;"'"&amp;Tableau1[[#This Row],[statistiques_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Equipable / false équipable]]&amp;","&amp;Tableau1[[#This Row],[coffre (ouvert/fermé)]]&amp;","&amp;"'"&amp;Tableau1[[#This Row],[description_objets]]&amp;"'"&amp;","&amp;Tableau1[[#This Row],[Prix]]&amp;","&amp;Tableau1[[#This Row],[Poids]]&amp;")"&amp;","</f>
-        <v>(88,'clôture','',false,false,'Barrière infranchissable','',''),</v>
+        <v>(88,'clôture','',false,false,'Barrière infranchissable',null,null),</v>
       </c>
     </row>
   </sheetData>
